--- a/utils/Tools/excel/20_task_任务.xlsx
+++ b/utils/Tools/excel/20_task_任务.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="26175" windowHeight="9165"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -107,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
   <si>
     <t>任务id</t>
   </si>
@@ -140,24 +140,6 @@
   </si>
   <si>
     <t>是否可见</t>
-  </si>
-  <si>
-    <t>1主线2日常3周常</t>
-  </si>
-  <si>
-    <t>任务说明</t>
-  </si>
-  <si>
-    <t>0完成全部，x表示需要完成x个目标列表中的条件</t>
-  </si>
-  <si>
-    <t>0来源当前状态或历史数据，1来源当前行为</t>
-  </si>
-  <si>
-    <t>配置条件表id</t>
-  </si>
-  <si>
-    <t>用于限时的任务,不配置表不限时</t>
   </si>
   <si>
     <t>id</t>
@@ -419,13 +401,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFD9E1F4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9E1F4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1413,12 +1395,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1475,85 +1457,93 @@
       </c>
     </row>
     <row r="2" ht="16.5" spans="1:12">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
+      <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="J2" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="3" ht="16.5" spans="1:12">
       <c r="A3" s="3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="I3" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:12">
       <c r="A4" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>29</v>
@@ -1562,13 +1552,13 @@
         <v>29</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>29</v>
@@ -1577,190 +1567,152 @@
         <v>29</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" ht="16.5" spans="1:12">
-      <c r="A5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>33</v>
-      </c>
+      <c r="A5" s="4">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
     </row>
     <row r="6" ht="16.5" spans="1:12">
-      <c r="A6" s="4">
-        <v>1</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4">
+      <c r="A6" s="2">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2">
         <v>0</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
     </row>
     <row r="7" ht="16.5" spans="1:12">
-      <c r="A7" s="3">
-        <v>2</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3">
+      <c r="A7" s="4">
+        <v>3</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4">
         <v>0</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
     </row>
     <row r="8" ht="16.5" spans="1:12">
-      <c r="A8" s="4">
-        <v>3</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4">
+      <c r="A8" s="2">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2">
         <v>0</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
     </row>
     <row r="9" ht="16.5" spans="1:12">
-      <c r="A9" s="3">
-        <v>4</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3">
+      <c r="A9" s="4">
+        <v>5</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4">
         <v>0</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
     </row>
     <row r="10" ht="16.5" spans="1:12">
-      <c r="A10" s="4">
-        <v>5</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4">
+      <c r="A10" s="2">
+        <v>6</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2">
         <v>0</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
     </row>
     <row r="11" ht="16.5" spans="1:12">
-      <c r="A11" s="3">
-        <v>6</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3">
-        <v>0</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
+      <c r="A11" s="4">
+        <v>1001</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4">
+        <v>1</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
     </row>
     <row r="12" ht="16.5" spans="1:12">
-      <c r="A12" s="4">
-        <v>1001</v>
-      </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4">
+      <c r="A12" s="2">
+        <v>1002</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2">
         <v>1</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-    </row>
-    <row r="13" ht="16.5" spans="1:12">
-      <c r="A13" s="3">
-        <v>1002</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3">
-        <v>1</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
